--- a/data/s_vals/2023/stone_gavin.xlsx
+++ b/data/s_vals/2023/stone_gavin.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>3.291990378735282</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D2" t="n">
-        <v>10.81613970437307</v>
+        <v>2938.103010863317</v>
       </c>
       <c r="E2" t="n">
-        <v>4.849643088080038</v>
+        <v>71517.89157740913</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>21.34824023189142</v>
+        <v>74466.72682088954</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/stone_gavin.xlsx
+++ b/data/s_vals/2023/stone_gavin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>74466.72682088954</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/stone_gavin.xlsx
+++ b/data/s_vals/2023/stone_gavin.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>9.226618575922256</v>
+        <v>10.34677158129881</v>
       </c>
       <c r="D2" t="n">
-        <v>2938.103010863317</v>
+        <v>6708.013860684405</v>
       </c>
       <c r="E2" t="n">
-        <v>71517.89157740913</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>74466.72682088954</v>
+        <v>2202698.694456295</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
